--- a/Offline/Marketing/MarketingManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketing/MarketingManagement/MarketingMasterPlan-May-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingBacklog" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="309">
   <si>
     <t>Medium</t>
   </si>
@@ -935,9 +935,6 @@
     <t>Commerce College</t>
   </si>
   <si>
-    <t>High School</t>
-  </si>
-  <si>
     <t>Road Show</t>
   </si>
   <si>
@@ -950,9 +947,6 @@
     <t>Forced Application to Schools</t>
   </si>
   <si>
-    <t>Applications to Just Dial Responders</t>
-  </si>
-  <si>
     <t>IT Park Campaign</t>
   </si>
   <si>
@@ -981,6 +975,15 @@
   </si>
   <si>
     <t>Specific Faculty Details</t>
+  </si>
+  <si>
+    <t>Letter Box Drop</t>
+  </si>
+  <si>
+    <t>Just Dial Institutional Responders</t>
+  </si>
+  <si>
+    <t>Just Dial Leads</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2253,56 +2256,65 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2590,2215 +2602,2215 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="176" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="187" t="s">
+      <c r="F1" s="176" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="187" t="s">
+      <c r="H1" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="187" t="s">
+      <c r="J1" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="187" t="s">
+      <c r="K1" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="187" t="s">
+      <c r="L1" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="187" t="s">
+      <c r="M1" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="187" t="s">
+      <c r="N1" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="187" t="s">
+      <c r="O1" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="187" t="s">
+      <c r="P1" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="187" t="s">
+      <c r="Q1" s="176" t="s">
         <v>202</v>
       </c>
-      <c r="R1" s="187" t="s">
+      <c r="R1" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="S1" s="187" t="s">
+      <c r="S1" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="187" t="s">
+      <c r="T1" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="U1" s="187" t="s">
+      <c r="U1" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="187" t="s">
+      <c r="V1" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="W1" s="187" t="s">
+      <c r="W1" s="176" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="188">
-        <v>1</v>
-      </c>
-      <c r="B2" s="188" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="177">
+        <v>1</v>
+      </c>
+      <c r="B2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="188" t="s">
+      <c r="G2" s="177" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="188" t="s">
+      <c r="H2" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="188" t="s">
+      <c r="I2" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="188" t="s">
+      <c r="J2" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="188">
-        <v>4</v>
-      </c>
-      <c r="L2" s="189">
+      <c r="K2" s="177">
+        <v>4</v>
+      </c>
+      <c r="L2" s="178">
         <v>45103</v>
       </c>
-      <c r="M2" s="188">
+      <c r="M2" s="177">
         <v>5</v>
       </c>
-      <c r="N2" s="188">
-        <v>4</v>
-      </c>
-      <c r="O2" s="188">
-        <v>4</v>
-      </c>
-      <c r="P2" s="188">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="188">
-        <v>4</v>
-      </c>
-      <c r="R2" s="188">
-        <v>4</v>
-      </c>
-      <c r="S2" s="188">
-        <v>4</v>
-      </c>
-      <c r="T2" s="188">
-        <v>4</v>
-      </c>
-      <c r="U2" s="188">
+      <c r="N2" s="177">
+        <v>4</v>
+      </c>
+      <c r="O2" s="177">
+        <v>4</v>
+      </c>
+      <c r="P2" s="177">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="177">
+        <v>4</v>
+      </c>
+      <c r="R2" s="177">
+        <v>4</v>
+      </c>
+      <c r="S2" s="177">
+        <v>4</v>
+      </c>
+      <c r="T2" s="177">
+        <v>4</v>
+      </c>
+      <c r="U2" s="177">
         <v>3</v>
       </c>
-      <c r="V2" s="188">
+      <c r="V2" s="177">
         <v>3</v>
       </c>
-      <c r="W2" s="188">
+      <c r="W2" s="177">
         <f t="shared" ref="W2:W43" si="0">(M2+N2+O2+P2+Q2)*(R2+S2+T2+U2+V2)/625</f>
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="188">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="177">
         <v>2</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="177" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="177"/>
+      <c r="F3" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="188" t="s">
+      <c r="G3" s="177" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="188" t="s">
+      <c r="I3" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="188">
-        <v>4</v>
-      </c>
-      <c r="L3" s="189">
+      <c r="K3" s="177">
+        <v>4</v>
+      </c>
+      <c r="L3" s="178">
         <v>45103</v>
       </c>
-      <c r="M3" s="188">
+      <c r="M3" s="177">
         <v>5</v>
       </c>
-      <c r="N3" s="188">
+      <c r="N3" s="177">
         <v>5</v>
       </c>
-      <c r="O3" s="188">
+      <c r="O3" s="177">
         <v>5</v>
       </c>
-      <c r="P3" s="188">
+      <c r="P3" s="177">
         <v>5</v>
       </c>
-      <c r="Q3" s="188">
+      <c r="Q3" s="177">
         <v>3</v>
       </c>
-      <c r="R3" s="188">
-        <v>4</v>
-      </c>
-      <c r="S3" s="188">
-        <v>4</v>
-      </c>
-      <c r="T3" s="188">
+      <c r="R3" s="177">
+        <v>4</v>
+      </c>
+      <c r="S3" s="177">
+        <v>4</v>
+      </c>
+      <c r="T3" s="177">
         <v>2</v>
       </c>
-      <c r="U3" s="188">
+      <c r="U3" s="177">
         <v>3</v>
       </c>
-      <c r="V3" s="188">
+      <c r="V3" s="177">
         <v>3</v>
       </c>
-      <c r="W3" s="188">
+      <c r="W3" s="177">
         <f t="shared" si="0"/>
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="188">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="177">
         <v>3</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="177" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="188" t="s">
+      <c r="I4" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="188" t="s">
+      <c r="J4" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="188">
-        <v>4</v>
-      </c>
-      <c r="L4" s="189">
+      <c r="K4" s="177">
+        <v>4</v>
+      </c>
+      <c r="L4" s="178">
         <v>45103</v>
       </c>
-      <c r="M4" s="188">
+      <c r="M4" s="177">
         <v>5</v>
       </c>
-      <c r="N4" s="188">
+      <c r="N4" s="177">
         <v>3</v>
       </c>
-      <c r="O4" s="188">
-        <v>4</v>
-      </c>
-      <c r="P4" s="188">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="188">
-        <v>4</v>
-      </c>
-      <c r="R4" s="188">
+      <c r="O4" s="177">
+        <v>4</v>
+      </c>
+      <c r="P4" s="177">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="177">
+        <v>4</v>
+      </c>
+      <c r="R4" s="177">
         <v>3</v>
       </c>
-      <c r="S4" s="188">
+      <c r="S4" s="177">
         <v>3</v>
       </c>
-      <c r="T4" s="188">
-        <v>4</v>
-      </c>
-      <c r="U4" s="188">
+      <c r="T4" s="177">
+        <v>4</v>
+      </c>
+      <c r="U4" s="177">
         <v>3</v>
       </c>
-      <c r="V4" s="188">
+      <c r="V4" s="177">
         <v>3</v>
       </c>
-      <c r="W4" s="188">
+      <c r="W4" s="177">
         <f t="shared" si="0"/>
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="188">
-        <v>4</v>
-      </c>
-      <c r="B5" s="188" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="177">
+        <v>4</v>
+      </c>
+      <c r="B5" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="188" t="s">
+      <c r="G5" s="177" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="188" t="s">
+      <c r="I5" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="188" t="s">
+      <c r="J5" s="177" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="188">
-        <v>4</v>
-      </c>
-      <c r="L5" s="189">
+      <c r="K5" s="177">
+        <v>4</v>
+      </c>
+      <c r="L5" s="178">
         <v>45103</v>
       </c>
-      <c r="M5" s="188">
+      <c r="M5" s="177">
         <v>5</v>
       </c>
-      <c r="N5" s="188">
+      <c r="N5" s="177">
         <v>2</v>
       </c>
-      <c r="O5" s="188">
+      <c r="O5" s="177">
         <v>2</v>
       </c>
-      <c r="P5" s="188">
+      <c r="P5" s="177">
         <v>2</v>
       </c>
-      <c r="Q5" s="188">
-        <v>4</v>
-      </c>
-      <c r="R5" s="188">
+      <c r="Q5" s="177">
+        <v>4</v>
+      </c>
+      <c r="R5" s="177">
         <v>2</v>
       </c>
-      <c r="S5" s="188">
+      <c r="S5" s="177">
         <v>2</v>
       </c>
-      <c r="T5" s="188">
-        <v>4</v>
-      </c>
-      <c r="U5" s="188">
+      <c r="T5" s="177">
+        <v>4</v>
+      </c>
+      <c r="U5" s="177">
         <v>2</v>
       </c>
-      <c r="V5" s="188">
+      <c r="V5" s="177">
         <v>3</v>
       </c>
-      <c r="W5" s="188">
+      <c r="W5" s="177">
         <f t="shared" si="0"/>
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="177"/>
+      <c r="B6" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188">
-        <v>1</v>
-      </c>
-      <c r="N6" s="188">
-        <v>1</v>
-      </c>
-      <c r="O6" s="188">
-        <v>1</v>
-      </c>
-      <c r="P6" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="188">
-        <v>1</v>
-      </c>
-      <c r="R6" s="188">
-        <v>1</v>
-      </c>
-      <c r="S6" s="188">
-        <v>1</v>
-      </c>
-      <c r="T6" s="188">
-        <v>1</v>
-      </c>
-      <c r="U6" s="188">
-        <v>1</v>
-      </c>
-      <c r="V6" s="188">
-        <v>1</v>
-      </c>
-      <c r="W6" s="188">
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177">
+        <v>1</v>
+      </c>
+      <c r="N6" s="177">
+        <v>1</v>
+      </c>
+      <c r="O6" s="177">
+        <v>1</v>
+      </c>
+      <c r="P6" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="177">
+        <v>1</v>
+      </c>
+      <c r="R6" s="177">
+        <v>1</v>
+      </c>
+      <c r="S6" s="177">
+        <v>1</v>
+      </c>
+      <c r="T6" s="177">
+        <v>1</v>
+      </c>
+      <c r="U6" s="177">
+        <v>1</v>
+      </c>
+      <c r="V6" s="177">
+        <v>1</v>
+      </c>
+      <c r="W6" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
-      <c r="B7" s="188" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="177"/>
+      <c r="B7" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188">
-        <v>1</v>
-      </c>
-      <c r="N7" s="188">
-        <v>1</v>
-      </c>
-      <c r="O7" s="188">
-        <v>1</v>
-      </c>
-      <c r="P7" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="188">
-        <v>1</v>
-      </c>
-      <c r="R7" s="188">
-        <v>1</v>
-      </c>
-      <c r="S7" s="188">
-        <v>1</v>
-      </c>
-      <c r="T7" s="188">
-        <v>1</v>
-      </c>
-      <c r="U7" s="188">
-        <v>1</v>
-      </c>
-      <c r="V7" s="188">
-        <v>1</v>
-      </c>
-      <c r="W7" s="188">
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177">
+        <v>1</v>
+      </c>
+      <c r="N7" s="177">
+        <v>1</v>
+      </c>
+      <c r="O7" s="177">
+        <v>1</v>
+      </c>
+      <c r="P7" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="177">
+        <v>1</v>
+      </c>
+      <c r="R7" s="177">
+        <v>1</v>
+      </c>
+      <c r="S7" s="177">
+        <v>1</v>
+      </c>
+      <c r="T7" s="177">
+        <v>1</v>
+      </c>
+      <c r="U7" s="177">
+        <v>1</v>
+      </c>
+      <c r="V7" s="177">
+        <v>1</v>
+      </c>
+      <c r="W7" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="188" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="177"/>
+      <c r="B8" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188">
-        <v>1</v>
-      </c>
-      <c r="N8" s="188">
-        <v>1</v>
-      </c>
-      <c r="O8" s="188">
-        <v>1</v>
-      </c>
-      <c r="P8" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="188">
-        <v>1</v>
-      </c>
-      <c r="R8" s="188">
-        <v>1</v>
-      </c>
-      <c r="S8" s="188">
-        <v>1</v>
-      </c>
-      <c r="T8" s="188">
-        <v>1</v>
-      </c>
-      <c r="U8" s="188">
-        <v>1</v>
-      </c>
-      <c r="V8" s="188">
-        <v>1</v>
-      </c>
-      <c r="W8" s="188">
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177">
+        <v>1</v>
+      </c>
+      <c r="N8" s="177">
+        <v>1</v>
+      </c>
+      <c r="O8" s="177">
+        <v>1</v>
+      </c>
+      <c r="P8" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="177">
+        <v>1</v>
+      </c>
+      <c r="R8" s="177">
+        <v>1</v>
+      </c>
+      <c r="S8" s="177">
+        <v>1</v>
+      </c>
+      <c r="T8" s="177">
+        <v>1</v>
+      </c>
+      <c r="U8" s="177">
+        <v>1</v>
+      </c>
+      <c r="V8" s="177">
+        <v>1</v>
+      </c>
+      <c r="W8" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188">
-        <v>1</v>
-      </c>
-      <c r="N9" s="188">
-        <v>1</v>
-      </c>
-      <c r="O9" s="188">
-        <v>1</v>
-      </c>
-      <c r="P9" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="188">
-        <v>1</v>
-      </c>
-      <c r="R9" s="188">
-        <v>1</v>
-      </c>
-      <c r="S9" s="188">
-        <v>1</v>
-      </c>
-      <c r="T9" s="188">
-        <v>1</v>
-      </c>
-      <c r="U9" s="188">
-        <v>1</v>
-      </c>
-      <c r="V9" s="188">
-        <v>1</v>
-      </c>
-      <c r="W9" s="188">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="177"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177">
+        <v>1</v>
+      </c>
+      <c r="N9" s="177">
+        <v>1</v>
+      </c>
+      <c r="O9" s="177">
+        <v>1</v>
+      </c>
+      <c r="P9" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="177">
+        <v>1</v>
+      </c>
+      <c r="R9" s="177">
+        <v>1</v>
+      </c>
+      <c r="S9" s="177">
+        <v>1</v>
+      </c>
+      <c r="T9" s="177">
+        <v>1</v>
+      </c>
+      <c r="U9" s="177">
+        <v>1</v>
+      </c>
+      <c r="V9" s="177">
+        <v>1</v>
+      </c>
+      <c r="W9" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188">
-        <v>1</v>
-      </c>
-      <c r="N10" s="188">
-        <v>1</v>
-      </c>
-      <c r="O10" s="188">
-        <v>1</v>
-      </c>
-      <c r="P10" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="188">
-        <v>1</v>
-      </c>
-      <c r="R10" s="188">
-        <v>1</v>
-      </c>
-      <c r="S10" s="188">
-        <v>1</v>
-      </c>
-      <c r="T10" s="188">
-        <v>1</v>
-      </c>
-      <c r="U10" s="188">
-        <v>1</v>
-      </c>
-      <c r="V10" s="188">
-        <v>1</v>
-      </c>
-      <c r="W10" s="188">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="177"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177">
+        <v>1</v>
+      </c>
+      <c r="N10" s="177">
+        <v>1</v>
+      </c>
+      <c r="O10" s="177">
+        <v>1</v>
+      </c>
+      <c r="P10" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="177">
+        <v>1</v>
+      </c>
+      <c r="R10" s="177">
+        <v>1</v>
+      </c>
+      <c r="S10" s="177">
+        <v>1</v>
+      </c>
+      <c r="T10" s="177">
+        <v>1</v>
+      </c>
+      <c r="U10" s="177">
+        <v>1</v>
+      </c>
+      <c r="V10" s="177">
+        <v>1</v>
+      </c>
+      <c r="W10" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188">
-        <v>1</v>
-      </c>
-      <c r="N11" s="188">
-        <v>1</v>
-      </c>
-      <c r="O11" s="188">
-        <v>1</v>
-      </c>
-      <c r="P11" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="188">
-        <v>1</v>
-      </c>
-      <c r="R11" s="188">
-        <v>1</v>
-      </c>
-      <c r="S11" s="188">
-        <v>1</v>
-      </c>
-      <c r="T11" s="188">
-        <v>1</v>
-      </c>
-      <c r="U11" s="188">
-        <v>1</v>
-      </c>
-      <c r="V11" s="188">
-        <v>1</v>
-      </c>
-      <c r="W11" s="188">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177">
+        <v>1</v>
+      </c>
+      <c r="N11" s="177">
+        <v>1</v>
+      </c>
+      <c r="O11" s="177">
+        <v>1</v>
+      </c>
+      <c r="P11" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="177">
+        <v>1</v>
+      </c>
+      <c r="R11" s="177">
+        <v>1</v>
+      </c>
+      <c r="S11" s="177">
+        <v>1</v>
+      </c>
+      <c r="T11" s="177">
+        <v>1</v>
+      </c>
+      <c r="U11" s="177">
+        <v>1</v>
+      </c>
+      <c r="V11" s="177">
+        <v>1</v>
+      </c>
+      <c r="W11" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188">
-        <v>1</v>
-      </c>
-      <c r="N12" s="188">
-        <v>1</v>
-      </c>
-      <c r="O12" s="188">
-        <v>1</v>
-      </c>
-      <c r="P12" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="188">
-        <v>1</v>
-      </c>
-      <c r="R12" s="188">
-        <v>1</v>
-      </c>
-      <c r="S12" s="188">
-        <v>1</v>
-      </c>
-      <c r="T12" s="188">
-        <v>1</v>
-      </c>
-      <c r="U12" s="188">
-        <v>1</v>
-      </c>
-      <c r="V12" s="188">
-        <v>1</v>
-      </c>
-      <c r="W12" s="188">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177">
+        <v>1</v>
+      </c>
+      <c r="N12" s="177">
+        <v>1</v>
+      </c>
+      <c r="O12" s="177">
+        <v>1</v>
+      </c>
+      <c r="P12" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="177">
+        <v>1</v>
+      </c>
+      <c r="R12" s="177">
+        <v>1</v>
+      </c>
+      <c r="S12" s="177">
+        <v>1</v>
+      </c>
+      <c r="T12" s="177">
+        <v>1</v>
+      </c>
+      <c r="U12" s="177">
+        <v>1</v>
+      </c>
+      <c r="V12" s="177">
+        <v>1</v>
+      </c>
+      <c r="W12" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188">
-        <v>1</v>
-      </c>
-      <c r="N13" s="188">
-        <v>1</v>
-      </c>
-      <c r="O13" s="188">
-        <v>1</v>
-      </c>
-      <c r="P13" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="188">
-        <v>1</v>
-      </c>
-      <c r="R13" s="188">
-        <v>1</v>
-      </c>
-      <c r="S13" s="188">
-        <v>1</v>
-      </c>
-      <c r="T13" s="188">
-        <v>1</v>
-      </c>
-      <c r="U13" s="188">
-        <v>1</v>
-      </c>
-      <c r="V13" s="188">
-        <v>1</v>
-      </c>
-      <c r="W13" s="188">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177">
+        <v>1</v>
+      </c>
+      <c r="N13" s="177">
+        <v>1</v>
+      </c>
+      <c r="O13" s="177">
+        <v>1</v>
+      </c>
+      <c r="P13" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="177">
+        <v>1</v>
+      </c>
+      <c r="R13" s="177">
+        <v>1</v>
+      </c>
+      <c r="S13" s="177">
+        <v>1</v>
+      </c>
+      <c r="T13" s="177">
+        <v>1</v>
+      </c>
+      <c r="U13" s="177">
+        <v>1</v>
+      </c>
+      <c r="V13" s="177">
+        <v>1</v>
+      </c>
+      <c r="W13" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188">
-        <v>1</v>
-      </c>
-      <c r="N14" s="188">
-        <v>1</v>
-      </c>
-      <c r="O14" s="188">
-        <v>1</v>
-      </c>
-      <c r="P14" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="188">
-        <v>1</v>
-      </c>
-      <c r="R14" s="188">
-        <v>1</v>
-      </c>
-      <c r="S14" s="188">
-        <v>1</v>
-      </c>
-      <c r="T14" s="188">
-        <v>1</v>
-      </c>
-      <c r="U14" s="188">
-        <v>1</v>
-      </c>
-      <c r="V14" s="188">
-        <v>1</v>
-      </c>
-      <c r="W14" s="188">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="177"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177">
+        <v>1</v>
+      </c>
+      <c r="N14" s="177">
+        <v>1</v>
+      </c>
+      <c r="O14" s="177">
+        <v>1</v>
+      </c>
+      <c r="P14" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="177">
+        <v>1</v>
+      </c>
+      <c r="R14" s="177">
+        <v>1</v>
+      </c>
+      <c r="S14" s="177">
+        <v>1</v>
+      </c>
+      <c r="T14" s="177">
+        <v>1</v>
+      </c>
+      <c r="U14" s="177">
+        <v>1</v>
+      </c>
+      <c r="V14" s="177">
+        <v>1</v>
+      </c>
+      <c r="W14" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188">
-        <v>1</v>
-      </c>
-      <c r="N15" s="188">
-        <v>1</v>
-      </c>
-      <c r="O15" s="188">
-        <v>1</v>
-      </c>
-      <c r="P15" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="188">
-        <v>1</v>
-      </c>
-      <c r="R15" s="188">
-        <v>1</v>
-      </c>
-      <c r="S15" s="188">
-        <v>1</v>
-      </c>
-      <c r="T15" s="188">
-        <v>1</v>
-      </c>
-      <c r="U15" s="188">
-        <v>1</v>
-      </c>
-      <c r="V15" s="188">
-        <v>1</v>
-      </c>
-      <c r="W15" s="188">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="177"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177">
+        <v>1</v>
+      </c>
+      <c r="N15" s="177">
+        <v>1</v>
+      </c>
+      <c r="O15" s="177">
+        <v>1</v>
+      </c>
+      <c r="P15" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="177">
+        <v>1</v>
+      </c>
+      <c r="R15" s="177">
+        <v>1</v>
+      </c>
+      <c r="S15" s="177">
+        <v>1</v>
+      </c>
+      <c r="T15" s="177">
+        <v>1</v>
+      </c>
+      <c r="U15" s="177">
+        <v>1</v>
+      </c>
+      <c r="V15" s="177">
+        <v>1</v>
+      </c>
+      <c r="W15" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188">
-        <v>1</v>
-      </c>
-      <c r="N16" s="188">
-        <v>1</v>
-      </c>
-      <c r="O16" s="188">
-        <v>1</v>
-      </c>
-      <c r="P16" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="188">
-        <v>1</v>
-      </c>
-      <c r="R16" s="188">
-        <v>1</v>
-      </c>
-      <c r="S16" s="188">
-        <v>1</v>
-      </c>
-      <c r="T16" s="188">
-        <v>1</v>
-      </c>
-      <c r="U16" s="188">
-        <v>1</v>
-      </c>
-      <c r="V16" s="188">
-        <v>1</v>
-      </c>
-      <c r="W16" s="188">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="177"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177">
+        <v>1</v>
+      </c>
+      <c r="N16" s="177">
+        <v>1</v>
+      </c>
+      <c r="O16" s="177">
+        <v>1</v>
+      </c>
+      <c r="P16" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="177">
+        <v>1</v>
+      </c>
+      <c r="R16" s="177">
+        <v>1</v>
+      </c>
+      <c r="S16" s="177">
+        <v>1</v>
+      </c>
+      <c r="T16" s="177">
+        <v>1</v>
+      </c>
+      <c r="U16" s="177">
+        <v>1</v>
+      </c>
+      <c r="V16" s="177">
+        <v>1</v>
+      </c>
+      <c r="W16" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="188"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188">
-        <v>1</v>
-      </c>
-      <c r="N17" s="188">
-        <v>1</v>
-      </c>
-      <c r="O17" s="188">
-        <v>1</v>
-      </c>
-      <c r="P17" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="188">
-        <v>1</v>
-      </c>
-      <c r="R17" s="188">
-        <v>1</v>
-      </c>
-      <c r="S17" s="188">
-        <v>1</v>
-      </c>
-      <c r="T17" s="188">
-        <v>1</v>
-      </c>
-      <c r="U17" s="188">
-        <v>1</v>
-      </c>
-      <c r="V17" s="188">
-        <v>1</v>
-      </c>
-      <c r="W17" s="188">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="177"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177">
+        <v>1</v>
+      </c>
+      <c r="N17" s="177">
+        <v>1</v>
+      </c>
+      <c r="O17" s="177">
+        <v>1</v>
+      </c>
+      <c r="P17" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="177">
+        <v>1</v>
+      </c>
+      <c r="R17" s="177">
+        <v>1</v>
+      </c>
+      <c r="S17" s="177">
+        <v>1</v>
+      </c>
+      <c r="T17" s="177">
+        <v>1</v>
+      </c>
+      <c r="U17" s="177">
+        <v>1</v>
+      </c>
+      <c r="V17" s="177">
+        <v>1</v>
+      </c>
+      <c r="W17" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188">
-        <v>1</v>
-      </c>
-      <c r="N18" s="188">
-        <v>1</v>
-      </c>
-      <c r="O18" s="188">
-        <v>1</v>
-      </c>
-      <c r="P18" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="188">
-        <v>1</v>
-      </c>
-      <c r="R18" s="188">
-        <v>1</v>
-      </c>
-      <c r="S18" s="188">
-        <v>1</v>
-      </c>
-      <c r="T18" s="188">
-        <v>1</v>
-      </c>
-      <c r="U18" s="188">
-        <v>1</v>
-      </c>
-      <c r="V18" s="188">
-        <v>1</v>
-      </c>
-      <c r="W18" s="188">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="177"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177">
+        <v>1</v>
+      </c>
+      <c r="N18" s="177">
+        <v>1</v>
+      </c>
+      <c r="O18" s="177">
+        <v>1</v>
+      </c>
+      <c r="P18" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="177">
+        <v>1</v>
+      </c>
+      <c r="R18" s="177">
+        <v>1</v>
+      </c>
+      <c r="S18" s="177">
+        <v>1</v>
+      </c>
+      <c r="T18" s="177">
+        <v>1</v>
+      </c>
+      <c r="U18" s="177">
+        <v>1</v>
+      </c>
+      <c r="V18" s="177">
+        <v>1</v>
+      </c>
+      <c r="W18" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188">
-        <v>1</v>
-      </c>
-      <c r="N19" s="188">
-        <v>1</v>
-      </c>
-      <c r="O19" s="188">
-        <v>1</v>
-      </c>
-      <c r="P19" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="188">
-        <v>1</v>
-      </c>
-      <c r="R19" s="188">
-        <v>1</v>
-      </c>
-      <c r="S19" s="188">
-        <v>1</v>
-      </c>
-      <c r="T19" s="188">
-        <v>1</v>
-      </c>
-      <c r="U19" s="188">
-        <v>1</v>
-      </c>
-      <c r="V19" s="188">
-        <v>1</v>
-      </c>
-      <c r="W19" s="188">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="177"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177">
+        <v>1</v>
+      </c>
+      <c r="N19" s="177">
+        <v>1</v>
+      </c>
+      <c r="O19" s="177">
+        <v>1</v>
+      </c>
+      <c r="P19" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="177">
+        <v>1</v>
+      </c>
+      <c r="R19" s="177">
+        <v>1</v>
+      </c>
+      <c r="S19" s="177">
+        <v>1</v>
+      </c>
+      <c r="T19" s="177">
+        <v>1</v>
+      </c>
+      <c r="U19" s="177">
+        <v>1</v>
+      </c>
+      <c r="V19" s="177">
+        <v>1</v>
+      </c>
+      <c r="W19" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188">
-        <v>1</v>
-      </c>
-      <c r="N20" s="188">
-        <v>1</v>
-      </c>
-      <c r="O20" s="188">
-        <v>1</v>
-      </c>
-      <c r="P20" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="188">
-        <v>1</v>
-      </c>
-      <c r="R20" s="188">
-        <v>1</v>
-      </c>
-      <c r="S20" s="188">
-        <v>1</v>
-      </c>
-      <c r="T20" s="188">
-        <v>1</v>
-      </c>
-      <c r="U20" s="188">
-        <v>1</v>
-      </c>
-      <c r="V20" s="188">
-        <v>1</v>
-      </c>
-      <c r="W20" s="188">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="177"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177">
+        <v>1</v>
+      </c>
+      <c r="N20" s="177">
+        <v>1</v>
+      </c>
+      <c r="O20" s="177">
+        <v>1</v>
+      </c>
+      <c r="P20" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="177">
+        <v>1</v>
+      </c>
+      <c r="R20" s="177">
+        <v>1</v>
+      </c>
+      <c r="S20" s="177">
+        <v>1</v>
+      </c>
+      <c r="T20" s="177">
+        <v>1</v>
+      </c>
+      <c r="U20" s="177">
+        <v>1</v>
+      </c>
+      <c r="V20" s="177">
+        <v>1</v>
+      </c>
+      <c r="W20" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188">
-        <v>1</v>
-      </c>
-      <c r="N21" s="188">
-        <v>1</v>
-      </c>
-      <c r="O21" s="188">
-        <v>1</v>
-      </c>
-      <c r="P21" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="188">
-        <v>1</v>
-      </c>
-      <c r="R21" s="188">
-        <v>1</v>
-      </c>
-      <c r="S21" s="188">
-        <v>1</v>
-      </c>
-      <c r="T21" s="188">
-        <v>1</v>
-      </c>
-      <c r="U21" s="188">
-        <v>1</v>
-      </c>
-      <c r="V21" s="188">
-        <v>1</v>
-      </c>
-      <c r="W21" s="188">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177">
+        <v>1</v>
+      </c>
+      <c r="N21" s="177">
+        <v>1</v>
+      </c>
+      <c r="O21" s="177">
+        <v>1</v>
+      </c>
+      <c r="P21" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="177">
+        <v>1</v>
+      </c>
+      <c r="R21" s="177">
+        <v>1</v>
+      </c>
+      <c r="S21" s="177">
+        <v>1</v>
+      </c>
+      <c r="T21" s="177">
+        <v>1</v>
+      </c>
+      <c r="U21" s="177">
+        <v>1</v>
+      </c>
+      <c r="V21" s="177">
+        <v>1</v>
+      </c>
+      <c r="W21" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188">
-        <v>1</v>
-      </c>
-      <c r="N22" s="188">
-        <v>1</v>
-      </c>
-      <c r="O22" s="188">
-        <v>1</v>
-      </c>
-      <c r="P22" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="188">
-        <v>1</v>
-      </c>
-      <c r="R22" s="188">
-        <v>1</v>
-      </c>
-      <c r="S22" s="188">
-        <v>1</v>
-      </c>
-      <c r="T22" s="188">
-        <v>1</v>
-      </c>
-      <c r="U22" s="188">
-        <v>1</v>
-      </c>
-      <c r="V22" s="188">
-        <v>1</v>
-      </c>
-      <c r="W22" s="188">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="177"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177">
+        <v>1</v>
+      </c>
+      <c r="N22" s="177">
+        <v>1</v>
+      </c>
+      <c r="O22" s="177">
+        <v>1</v>
+      </c>
+      <c r="P22" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="177">
+        <v>1</v>
+      </c>
+      <c r="R22" s="177">
+        <v>1</v>
+      </c>
+      <c r="S22" s="177">
+        <v>1</v>
+      </c>
+      <c r="T22" s="177">
+        <v>1</v>
+      </c>
+      <c r="U22" s="177">
+        <v>1</v>
+      </c>
+      <c r="V22" s="177">
+        <v>1</v>
+      </c>
+      <c r="W22" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188">
-        <v>1</v>
-      </c>
-      <c r="N23" s="188">
-        <v>1</v>
-      </c>
-      <c r="O23" s="188">
-        <v>1</v>
-      </c>
-      <c r="P23" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="188">
-        <v>1</v>
-      </c>
-      <c r="R23" s="188">
-        <v>1</v>
-      </c>
-      <c r="S23" s="188">
-        <v>1</v>
-      </c>
-      <c r="T23" s="188">
-        <v>1</v>
-      </c>
-      <c r="U23" s="188">
-        <v>1</v>
-      </c>
-      <c r="V23" s="188">
-        <v>1</v>
-      </c>
-      <c r="W23" s="188">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="177"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177">
+        <v>1</v>
+      </c>
+      <c r="N23" s="177">
+        <v>1</v>
+      </c>
+      <c r="O23" s="177">
+        <v>1</v>
+      </c>
+      <c r="P23" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="177">
+        <v>1</v>
+      </c>
+      <c r="R23" s="177">
+        <v>1</v>
+      </c>
+      <c r="S23" s="177">
+        <v>1</v>
+      </c>
+      <c r="T23" s="177">
+        <v>1</v>
+      </c>
+      <c r="U23" s="177">
+        <v>1</v>
+      </c>
+      <c r="V23" s="177">
+        <v>1</v>
+      </c>
+      <c r="W23" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="188"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188">
-        <v>1</v>
-      </c>
-      <c r="N24" s="188">
-        <v>1</v>
-      </c>
-      <c r="O24" s="188">
-        <v>1</v>
-      </c>
-      <c r="P24" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="188">
-        <v>1</v>
-      </c>
-      <c r="R24" s="188">
-        <v>1</v>
-      </c>
-      <c r="S24" s="188">
-        <v>1</v>
-      </c>
-      <c r="T24" s="188">
-        <v>1</v>
-      </c>
-      <c r="U24" s="188">
-        <v>1</v>
-      </c>
-      <c r="V24" s="188">
-        <v>1</v>
-      </c>
-      <c r="W24" s="188">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177">
+        <v>1</v>
+      </c>
+      <c r="N24" s="177">
+        <v>1</v>
+      </c>
+      <c r="O24" s="177">
+        <v>1</v>
+      </c>
+      <c r="P24" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="177">
+        <v>1</v>
+      </c>
+      <c r="R24" s="177">
+        <v>1</v>
+      </c>
+      <c r="S24" s="177">
+        <v>1</v>
+      </c>
+      <c r="T24" s="177">
+        <v>1</v>
+      </c>
+      <c r="U24" s="177">
+        <v>1</v>
+      </c>
+      <c r="V24" s="177">
+        <v>1</v>
+      </c>
+      <c r="W24" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="188"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188">
-        <v>1</v>
-      </c>
-      <c r="N25" s="188">
-        <v>1</v>
-      </c>
-      <c r="O25" s="188">
-        <v>1</v>
-      </c>
-      <c r="P25" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="188">
-        <v>1</v>
-      </c>
-      <c r="R25" s="188">
-        <v>1</v>
-      </c>
-      <c r="S25" s="188">
-        <v>1</v>
-      </c>
-      <c r="T25" s="188">
-        <v>1</v>
-      </c>
-      <c r="U25" s="188">
-        <v>1</v>
-      </c>
-      <c r="V25" s="188">
-        <v>1</v>
-      </c>
-      <c r="W25" s="188">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="177"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177">
+        <v>1</v>
+      </c>
+      <c r="N25" s="177">
+        <v>1</v>
+      </c>
+      <c r="O25" s="177">
+        <v>1</v>
+      </c>
+      <c r="P25" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="177">
+        <v>1</v>
+      </c>
+      <c r="R25" s="177">
+        <v>1</v>
+      </c>
+      <c r="S25" s="177">
+        <v>1</v>
+      </c>
+      <c r="T25" s="177">
+        <v>1</v>
+      </c>
+      <c r="U25" s="177">
+        <v>1</v>
+      </c>
+      <c r="V25" s="177">
+        <v>1</v>
+      </c>
+      <c r="W25" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="188"/>
-      <c r="B26" s="188"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188">
-        <v>1</v>
-      </c>
-      <c r="N26" s="188">
-        <v>1</v>
-      </c>
-      <c r="O26" s="188">
-        <v>1</v>
-      </c>
-      <c r="P26" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="188">
-        <v>1</v>
-      </c>
-      <c r="R26" s="188">
-        <v>1</v>
-      </c>
-      <c r="S26" s="188">
-        <v>1</v>
-      </c>
-      <c r="T26" s="188">
-        <v>1</v>
-      </c>
-      <c r="U26" s="188">
-        <v>1</v>
-      </c>
-      <c r="V26" s="188">
-        <v>1</v>
-      </c>
-      <c r="W26" s="188">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="177"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177">
+        <v>1</v>
+      </c>
+      <c r="N26" s="177">
+        <v>1</v>
+      </c>
+      <c r="O26" s="177">
+        <v>1</v>
+      </c>
+      <c r="P26" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="177">
+        <v>1</v>
+      </c>
+      <c r="R26" s="177">
+        <v>1</v>
+      </c>
+      <c r="S26" s="177">
+        <v>1</v>
+      </c>
+      <c r="T26" s="177">
+        <v>1</v>
+      </c>
+      <c r="U26" s="177">
+        <v>1</v>
+      </c>
+      <c r="V26" s="177">
+        <v>1</v>
+      </c>
+      <c r="W26" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="188"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188">
-        <v>1</v>
-      </c>
-      <c r="N27" s="188">
-        <v>1</v>
-      </c>
-      <c r="O27" s="188">
-        <v>1</v>
-      </c>
-      <c r="P27" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="188">
-        <v>1</v>
-      </c>
-      <c r="R27" s="188">
-        <v>1</v>
-      </c>
-      <c r="S27" s="188">
-        <v>1</v>
-      </c>
-      <c r="T27" s="188">
-        <v>1</v>
-      </c>
-      <c r="U27" s="188">
-        <v>1</v>
-      </c>
-      <c r="V27" s="188">
-        <v>1</v>
-      </c>
-      <c r="W27" s="188">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="177"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177">
+        <v>1</v>
+      </c>
+      <c r="N27" s="177">
+        <v>1</v>
+      </c>
+      <c r="O27" s="177">
+        <v>1</v>
+      </c>
+      <c r="P27" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="177">
+        <v>1</v>
+      </c>
+      <c r="R27" s="177">
+        <v>1</v>
+      </c>
+      <c r="S27" s="177">
+        <v>1</v>
+      </c>
+      <c r="T27" s="177">
+        <v>1</v>
+      </c>
+      <c r="U27" s="177">
+        <v>1</v>
+      </c>
+      <c r="V27" s="177">
+        <v>1</v>
+      </c>
+      <c r="W27" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="188"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188">
-        <v>1</v>
-      </c>
-      <c r="N28" s="188">
-        <v>1</v>
-      </c>
-      <c r="O28" s="188">
-        <v>1</v>
-      </c>
-      <c r="P28" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="188">
-        <v>1</v>
-      </c>
-      <c r="R28" s="188">
-        <v>1</v>
-      </c>
-      <c r="S28" s="188">
-        <v>1</v>
-      </c>
-      <c r="T28" s="188">
-        <v>1</v>
-      </c>
-      <c r="U28" s="188">
-        <v>1</v>
-      </c>
-      <c r="V28" s="188">
-        <v>1</v>
-      </c>
-      <c r="W28" s="188">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="177"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177">
+        <v>1</v>
+      </c>
+      <c r="N28" s="177">
+        <v>1</v>
+      </c>
+      <c r="O28" s="177">
+        <v>1</v>
+      </c>
+      <c r="P28" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="177">
+        <v>1</v>
+      </c>
+      <c r="R28" s="177">
+        <v>1</v>
+      </c>
+      <c r="S28" s="177">
+        <v>1</v>
+      </c>
+      <c r="T28" s="177">
+        <v>1</v>
+      </c>
+      <c r="U28" s="177">
+        <v>1</v>
+      </c>
+      <c r="V28" s="177">
+        <v>1</v>
+      </c>
+      <c r="W28" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="188"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188">
-        <v>1</v>
-      </c>
-      <c r="N29" s="188">
-        <v>1</v>
-      </c>
-      <c r="O29" s="188">
-        <v>1</v>
-      </c>
-      <c r="P29" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="188">
-        <v>1</v>
-      </c>
-      <c r="R29" s="188">
-        <v>1</v>
-      </c>
-      <c r="S29" s="188">
-        <v>1</v>
-      </c>
-      <c r="T29" s="188">
-        <v>1</v>
-      </c>
-      <c r="U29" s="188">
-        <v>1</v>
-      </c>
-      <c r="V29" s="188">
-        <v>1</v>
-      </c>
-      <c r="W29" s="188">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="177"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177">
+        <v>1</v>
+      </c>
+      <c r="N29" s="177">
+        <v>1</v>
+      </c>
+      <c r="O29" s="177">
+        <v>1</v>
+      </c>
+      <c r="P29" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="177">
+        <v>1</v>
+      </c>
+      <c r="R29" s="177">
+        <v>1</v>
+      </c>
+      <c r="S29" s="177">
+        <v>1</v>
+      </c>
+      <c r="T29" s="177">
+        <v>1</v>
+      </c>
+      <c r="U29" s="177">
+        <v>1</v>
+      </c>
+      <c r="V29" s="177">
+        <v>1</v>
+      </c>
+      <c r="W29" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="188"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188">
-        <v>1</v>
-      </c>
-      <c r="N30" s="188">
-        <v>1</v>
-      </c>
-      <c r="O30" s="188">
-        <v>1</v>
-      </c>
-      <c r="P30" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="188">
-        <v>1</v>
-      </c>
-      <c r="R30" s="188">
-        <v>1</v>
-      </c>
-      <c r="S30" s="188">
-        <v>1</v>
-      </c>
-      <c r="T30" s="188">
-        <v>1</v>
-      </c>
-      <c r="U30" s="188">
-        <v>1</v>
-      </c>
-      <c r="V30" s="188">
-        <v>1</v>
-      </c>
-      <c r="W30" s="188">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="177"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177">
+        <v>1</v>
+      </c>
+      <c r="N30" s="177">
+        <v>1</v>
+      </c>
+      <c r="O30" s="177">
+        <v>1</v>
+      </c>
+      <c r="P30" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="177">
+        <v>1</v>
+      </c>
+      <c r="R30" s="177">
+        <v>1</v>
+      </c>
+      <c r="S30" s="177">
+        <v>1</v>
+      </c>
+      <c r="T30" s="177">
+        <v>1</v>
+      </c>
+      <c r="U30" s="177">
+        <v>1</v>
+      </c>
+      <c r="V30" s="177">
+        <v>1</v>
+      </c>
+      <c r="W30" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="188"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188">
-        <v>1</v>
-      </c>
-      <c r="N31" s="188">
-        <v>1</v>
-      </c>
-      <c r="O31" s="188">
-        <v>1</v>
-      </c>
-      <c r="P31" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="188">
-        <v>1</v>
-      </c>
-      <c r="R31" s="188">
-        <v>1</v>
-      </c>
-      <c r="S31" s="188">
-        <v>1</v>
-      </c>
-      <c r="T31" s="188">
-        <v>1</v>
-      </c>
-      <c r="U31" s="188">
-        <v>1</v>
-      </c>
-      <c r="V31" s="188">
-        <v>1</v>
-      </c>
-      <c r="W31" s="188">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="177"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177">
+        <v>1</v>
+      </c>
+      <c r="N31" s="177">
+        <v>1</v>
+      </c>
+      <c r="O31" s="177">
+        <v>1</v>
+      </c>
+      <c r="P31" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="177">
+        <v>1</v>
+      </c>
+      <c r="R31" s="177">
+        <v>1</v>
+      </c>
+      <c r="S31" s="177">
+        <v>1</v>
+      </c>
+      <c r="T31" s="177">
+        <v>1</v>
+      </c>
+      <c r="U31" s="177">
+        <v>1</v>
+      </c>
+      <c r="V31" s="177">
+        <v>1</v>
+      </c>
+      <c r="W31" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="188"/>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188">
-        <v>1</v>
-      </c>
-      <c r="N32" s="188">
-        <v>1</v>
-      </c>
-      <c r="O32" s="188">
-        <v>1</v>
-      </c>
-      <c r="P32" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="188">
-        <v>1</v>
-      </c>
-      <c r="R32" s="188">
-        <v>1</v>
-      </c>
-      <c r="S32" s="188">
-        <v>1</v>
-      </c>
-      <c r="T32" s="188">
-        <v>1</v>
-      </c>
-      <c r="U32" s="188">
-        <v>1</v>
-      </c>
-      <c r="V32" s="188">
-        <v>1</v>
-      </c>
-      <c r="W32" s="188">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="177"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177">
+        <v>1</v>
+      </c>
+      <c r="N32" s="177">
+        <v>1</v>
+      </c>
+      <c r="O32" s="177">
+        <v>1</v>
+      </c>
+      <c r="P32" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="177">
+        <v>1</v>
+      </c>
+      <c r="R32" s="177">
+        <v>1</v>
+      </c>
+      <c r="S32" s="177">
+        <v>1</v>
+      </c>
+      <c r="T32" s="177">
+        <v>1</v>
+      </c>
+      <c r="U32" s="177">
+        <v>1</v>
+      </c>
+      <c r="V32" s="177">
+        <v>1</v>
+      </c>
+      <c r="W32" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188">
-        <v>1</v>
-      </c>
-      <c r="N33" s="188">
-        <v>1</v>
-      </c>
-      <c r="O33" s="188">
-        <v>1</v>
-      </c>
-      <c r="P33" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="188">
-        <v>1</v>
-      </c>
-      <c r="R33" s="188">
-        <v>1</v>
-      </c>
-      <c r="S33" s="188">
-        <v>1</v>
-      </c>
-      <c r="T33" s="188">
-        <v>1</v>
-      </c>
-      <c r="U33" s="188">
-        <v>1</v>
-      </c>
-      <c r="V33" s="188">
-        <v>1</v>
-      </c>
-      <c r="W33" s="188">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="177"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177">
+        <v>1</v>
+      </c>
+      <c r="N33" s="177">
+        <v>1</v>
+      </c>
+      <c r="O33" s="177">
+        <v>1</v>
+      </c>
+      <c r="P33" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="177">
+        <v>1</v>
+      </c>
+      <c r="R33" s="177">
+        <v>1</v>
+      </c>
+      <c r="S33" s="177">
+        <v>1</v>
+      </c>
+      <c r="T33" s="177">
+        <v>1</v>
+      </c>
+      <c r="U33" s="177">
+        <v>1</v>
+      </c>
+      <c r="V33" s="177">
+        <v>1</v>
+      </c>
+      <c r="W33" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="188"/>
-      <c r="B34" s="188"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188">
-        <v>1</v>
-      </c>
-      <c r="N34" s="188">
-        <v>1</v>
-      </c>
-      <c r="O34" s="188">
-        <v>1</v>
-      </c>
-      <c r="P34" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="188">
-        <v>1</v>
-      </c>
-      <c r="R34" s="188">
-        <v>1</v>
-      </c>
-      <c r="S34" s="188">
-        <v>1</v>
-      </c>
-      <c r="T34" s="188">
-        <v>1</v>
-      </c>
-      <c r="U34" s="188">
-        <v>1</v>
-      </c>
-      <c r="V34" s="188">
-        <v>1</v>
-      </c>
-      <c r="W34" s="188">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="177"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177">
+        <v>1</v>
+      </c>
+      <c r="N34" s="177">
+        <v>1</v>
+      </c>
+      <c r="O34" s="177">
+        <v>1</v>
+      </c>
+      <c r="P34" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="177">
+        <v>1</v>
+      </c>
+      <c r="R34" s="177">
+        <v>1</v>
+      </c>
+      <c r="S34" s="177">
+        <v>1</v>
+      </c>
+      <c r="T34" s="177">
+        <v>1</v>
+      </c>
+      <c r="U34" s="177">
+        <v>1</v>
+      </c>
+      <c r="V34" s="177">
+        <v>1</v>
+      </c>
+      <c r="W34" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="188"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188">
-        <v>1</v>
-      </c>
-      <c r="N35" s="188">
-        <v>1</v>
-      </c>
-      <c r="O35" s="188">
-        <v>1</v>
-      </c>
-      <c r="P35" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="188">
-        <v>1</v>
-      </c>
-      <c r="R35" s="188">
-        <v>1</v>
-      </c>
-      <c r="S35" s="188">
-        <v>1</v>
-      </c>
-      <c r="T35" s="188">
-        <v>1</v>
-      </c>
-      <c r="U35" s="188">
-        <v>1</v>
-      </c>
-      <c r="V35" s="188">
-        <v>1</v>
-      </c>
-      <c r="W35" s="188">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="177"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177">
+        <v>1</v>
+      </c>
+      <c r="N35" s="177">
+        <v>1</v>
+      </c>
+      <c r="O35" s="177">
+        <v>1</v>
+      </c>
+      <c r="P35" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="177">
+        <v>1</v>
+      </c>
+      <c r="R35" s="177">
+        <v>1</v>
+      </c>
+      <c r="S35" s="177">
+        <v>1</v>
+      </c>
+      <c r="T35" s="177">
+        <v>1</v>
+      </c>
+      <c r="U35" s="177">
+        <v>1</v>
+      </c>
+      <c r="V35" s="177">
+        <v>1</v>
+      </c>
+      <c r="W35" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188">
-        <v>1</v>
-      </c>
-      <c r="N36" s="188">
-        <v>1</v>
-      </c>
-      <c r="O36" s="188">
-        <v>1</v>
-      </c>
-      <c r="P36" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="188">
-        <v>1</v>
-      </c>
-      <c r="R36" s="188">
-        <v>1</v>
-      </c>
-      <c r="S36" s="188">
-        <v>1</v>
-      </c>
-      <c r="T36" s="188">
-        <v>1</v>
-      </c>
-      <c r="U36" s="188">
-        <v>1</v>
-      </c>
-      <c r="V36" s="188">
-        <v>1</v>
-      </c>
-      <c r="W36" s="188">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="177"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177">
+        <v>1</v>
+      </c>
+      <c r="N36" s="177">
+        <v>1</v>
+      </c>
+      <c r="O36" s="177">
+        <v>1</v>
+      </c>
+      <c r="P36" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="177">
+        <v>1</v>
+      </c>
+      <c r="R36" s="177">
+        <v>1</v>
+      </c>
+      <c r="S36" s="177">
+        <v>1</v>
+      </c>
+      <c r="T36" s="177">
+        <v>1</v>
+      </c>
+      <c r="U36" s="177">
+        <v>1</v>
+      </c>
+      <c r="V36" s="177">
+        <v>1</v>
+      </c>
+      <c r="W36" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188">
-        <v>1</v>
-      </c>
-      <c r="N37" s="188">
-        <v>1</v>
-      </c>
-      <c r="O37" s="188">
-        <v>1</v>
-      </c>
-      <c r="P37" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="188">
-        <v>1</v>
-      </c>
-      <c r="R37" s="188">
-        <v>1</v>
-      </c>
-      <c r="S37" s="188">
-        <v>1</v>
-      </c>
-      <c r="T37" s="188">
-        <v>1</v>
-      </c>
-      <c r="U37" s="188">
-        <v>1</v>
-      </c>
-      <c r="V37" s="188">
-        <v>1</v>
-      </c>
-      <c r="W37" s="188">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="177"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177">
+        <v>1</v>
+      </c>
+      <c r="N37" s="177">
+        <v>1</v>
+      </c>
+      <c r="O37" s="177">
+        <v>1</v>
+      </c>
+      <c r="P37" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="177">
+        <v>1</v>
+      </c>
+      <c r="R37" s="177">
+        <v>1</v>
+      </c>
+      <c r="S37" s="177">
+        <v>1</v>
+      </c>
+      <c r="T37" s="177">
+        <v>1</v>
+      </c>
+      <c r="U37" s="177">
+        <v>1</v>
+      </c>
+      <c r="V37" s="177">
+        <v>1</v>
+      </c>
+      <c r="W37" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188">
-        <v>1</v>
-      </c>
-      <c r="N38" s="188">
-        <v>1</v>
-      </c>
-      <c r="O38" s="188">
-        <v>1</v>
-      </c>
-      <c r="P38" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="188">
-        <v>1</v>
-      </c>
-      <c r="R38" s="188">
-        <v>1</v>
-      </c>
-      <c r="S38" s="188">
-        <v>1</v>
-      </c>
-      <c r="T38" s="188">
-        <v>1</v>
-      </c>
-      <c r="U38" s="188">
-        <v>1</v>
-      </c>
-      <c r="V38" s="188">
-        <v>1</v>
-      </c>
-      <c r="W38" s="188">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="177"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177">
+        <v>1</v>
+      </c>
+      <c r="N38" s="177">
+        <v>1</v>
+      </c>
+      <c r="O38" s="177">
+        <v>1</v>
+      </c>
+      <c r="P38" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="177">
+        <v>1</v>
+      </c>
+      <c r="R38" s="177">
+        <v>1</v>
+      </c>
+      <c r="S38" s="177">
+        <v>1</v>
+      </c>
+      <c r="T38" s="177">
+        <v>1</v>
+      </c>
+      <c r="U38" s="177">
+        <v>1</v>
+      </c>
+      <c r="V38" s="177">
+        <v>1</v>
+      </c>
+      <c r="W38" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188">
-        <v>1</v>
-      </c>
-      <c r="N39" s="188">
-        <v>1</v>
-      </c>
-      <c r="O39" s="188">
-        <v>1</v>
-      </c>
-      <c r="P39" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="188">
-        <v>1</v>
-      </c>
-      <c r="R39" s="188">
-        <v>1</v>
-      </c>
-      <c r="S39" s="188">
-        <v>1</v>
-      </c>
-      <c r="T39" s="188">
-        <v>1</v>
-      </c>
-      <c r="U39" s="188">
-        <v>1</v>
-      </c>
-      <c r="V39" s="188">
-        <v>1</v>
-      </c>
-      <c r="W39" s="188">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="177"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177">
+        <v>1</v>
+      </c>
+      <c r="N39" s="177">
+        <v>1</v>
+      </c>
+      <c r="O39" s="177">
+        <v>1</v>
+      </c>
+      <c r="P39" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="177">
+        <v>1</v>
+      </c>
+      <c r="R39" s="177">
+        <v>1</v>
+      </c>
+      <c r="S39" s="177">
+        <v>1</v>
+      </c>
+      <c r="T39" s="177">
+        <v>1</v>
+      </c>
+      <c r="U39" s="177">
+        <v>1</v>
+      </c>
+      <c r="V39" s="177">
+        <v>1</v>
+      </c>
+      <c r="W39" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="188"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188">
-        <v>1</v>
-      </c>
-      <c r="N40" s="188">
-        <v>1</v>
-      </c>
-      <c r="O40" s="188">
-        <v>1</v>
-      </c>
-      <c r="P40" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="188">
-        <v>1</v>
-      </c>
-      <c r="R40" s="188">
-        <v>1</v>
-      </c>
-      <c r="S40" s="188">
-        <v>1</v>
-      </c>
-      <c r="T40" s="188">
-        <v>1</v>
-      </c>
-      <c r="U40" s="188">
-        <v>1</v>
-      </c>
-      <c r="V40" s="188">
-        <v>1</v>
-      </c>
-      <c r="W40" s="188">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="177"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177">
+        <v>1</v>
+      </c>
+      <c r="N40" s="177">
+        <v>1</v>
+      </c>
+      <c r="O40" s="177">
+        <v>1</v>
+      </c>
+      <c r="P40" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="177">
+        <v>1</v>
+      </c>
+      <c r="R40" s="177">
+        <v>1</v>
+      </c>
+      <c r="S40" s="177">
+        <v>1</v>
+      </c>
+      <c r="T40" s="177">
+        <v>1</v>
+      </c>
+      <c r="U40" s="177">
+        <v>1</v>
+      </c>
+      <c r="V40" s="177">
+        <v>1</v>
+      </c>
+      <c r="W40" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="188"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188">
-        <v>1</v>
-      </c>
-      <c r="N41" s="188">
-        <v>1</v>
-      </c>
-      <c r="O41" s="188">
-        <v>1</v>
-      </c>
-      <c r="P41" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="188">
-        <v>1</v>
-      </c>
-      <c r="R41" s="188">
-        <v>1</v>
-      </c>
-      <c r="S41" s="188">
-        <v>1</v>
-      </c>
-      <c r="T41" s="188">
-        <v>1</v>
-      </c>
-      <c r="U41" s="188">
-        <v>1</v>
-      </c>
-      <c r="V41" s="188">
-        <v>1</v>
-      </c>
-      <c r="W41" s="188">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="177"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177">
+        <v>1</v>
+      </c>
+      <c r="N41" s="177">
+        <v>1</v>
+      </c>
+      <c r="O41" s="177">
+        <v>1</v>
+      </c>
+      <c r="P41" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="177">
+        <v>1</v>
+      </c>
+      <c r="R41" s="177">
+        <v>1</v>
+      </c>
+      <c r="S41" s="177">
+        <v>1</v>
+      </c>
+      <c r="T41" s="177">
+        <v>1</v>
+      </c>
+      <c r="U41" s="177">
+        <v>1</v>
+      </c>
+      <c r="V41" s="177">
+        <v>1</v>
+      </c>
+      <c r="W41" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="188"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
-      <c r="K42" s="188"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="188">
-        <v>1</v>
-      </c>
-      <c r="N42" s="188">
-        <v>1</v>
-      </c>
-      <c r="O42" s="188">
-        <v>1</v>
-      </c>
-      <c r="P42" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="188">
-        <v>1</v>
-      </c>
-      <c r="R42" s="188">
-        <v>1</v>
-      </c>
-      <c r="S42" s="188">
-        <v>1</v>
-      </c>
-      <c r="T42" s="188">
-        <v>1</v>
-      </c>
-      <c r="U42" s="188">
-        <v>1</v>
-      </c>
-      <c r="V42" s="188">
-        <v>1</v>
-      </c>
-      <c r="W42" s="188">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="177"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177">
+        <v>1</v>
+      </c>
+      <c r="N42" s="177">
+        <v>1</v>
+      </c>
+      <c r="O42" s="177">
+        <v>1</v>
+      </c>
+      <c r="P42" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="177">
+        <v>1</v>
+      </c>
+      <c r="R42" s="177">
+        <v>1</v>
+      </c>
+      <c r="S42" s="177">
+        <v>1</v>
+      </c>
+      <c r="T42" s="177">
+        <v>1</v>
+      </c>
+      <c r="U42" s="177">
+        <v>1</v>
+      </c>
+      <c r="V42" s="177">
+        <v>1</v>
+      </c>
+      <c r="W42" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="188"/>
-      <c r="M43" s="188">
-        <v>1</v>
-      </c>
-      <c r="N43" s="188">
-        <v>1</v>
-      </c>
-      <c r="O43" s="188">
-        <v>1</v>
-      </c>
-      <c r="P43" s="188">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="188">
-        <v>1</v>
-      </c>
-      <c r="R43" s="188">
-        <v>1</v>
-      </c>
-      <c r="S43" s="188">
-        <v>1</v>
-      </c>
-      <c r="T43" s="188">
-        <v>1</v>
-      </c>
-      <c r="U43" s="188">
-        <v>1</v>
-      </c>
-      <c r="V43" s="188">
-        <v>1</v>
-      </c>
-      <c r="W43" s="188">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="177"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177">
+        <v>1</v>
+      </c>
+      <c r="N43" s="177">
+        <v>1</v>
+      </c>
+      <c r="O43" s="177">
+        <v>1</v>
+      </c>
+      <c r="P43" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="177">
+        <v>1</v>
+      </c>
+      <c r="R43" s="177">
+        <v>1</v>
+      </c>
+      <c r="S43" s="177">
+        <v>1</v>
+      </c>
+      <c r="T43" s="177">
+        <v>1</v>
+      </c>
+      <c r="U43" s="177">
+        <v>1</v>
+      </c>
+      <c r="V43" s="177">
+        <v>1</v>
+      </c>
+      <c r="W43" s="177">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>225</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>227</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>228</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
         <v>230</v>
       </c>
@@ -4862,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
         <v>231</v>
       </c>
@@ -4873,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>232</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
         <v>233</v>
       </c>
@@ -4895,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
         <v>235</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>236</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>237</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>239</v>
       </c>
@@ -4939,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>241</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>242</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>243</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>245</v>
       </c>
@@ -4983,7 +4995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
         <v>252</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
         <v>254</v>
       </c>
@@ -5036,7 +5048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
         <v>256</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
         <v>257</v>
       </c>
@@ -5058,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
         <v>259</v>
       </c>
@@ -5069,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
         <v>261</v>
       </c>
@@ -5096,7 +5108,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5108,7 +5120,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5120,7 +5132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5134,48 +5146,48 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="57" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="6" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="4" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="5" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="4" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="5" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="6" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="73" max="74" width="4" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="5" bestFit="1" customWidth="1"/>
     <col min="76" max="77" width="6" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="4" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="5" bestFit="1" customWidth="1"/>
     <col min="82" max="83" width="6" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="85" max="86" width="4" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="5" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="6" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="92" max="120" width="12" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="23" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>99</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>99</v>
       </c>
@@ -5259,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>99</v>
       </c>
@@ -5291,7 +5303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>99</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>99</v>
       </c>
@@ -5355,7 +5367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>99</v>
       </c>
@@ -5383,7 +5395,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>99</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>99</v>
       </c>
@@ -5423,7 +5435,7 @@
         <v>3.9345358308985778</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>99</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>4.2920296742201796</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>99</v>
       </c>
@@ -5463,7 +5475,7 @@
         <v>4.5693234419266071</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>99</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>2.3173938055140151</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>99</v>
       </c>
@@ -5503,7 +5515,7 @@
         <v>3.1787469216608013</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>99</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>3.6826061944859854</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>99</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>4.0401000378075871</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>99</v>
       </c>
@@ -5563,7 +5575,7 @@
         <v>4.3173938055140155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>99</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>2.1386468838532142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>99</v>
       </c>
@@ -5603,7 +5615,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>99</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>3.5038592728251845</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>99</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>3.8613531161467862</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>99</v>
       </c>
@@ -5663,7 +5675,7 @@
         <v>4.1386468838532142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>99</v>
       </c>
@@ -5683,7 +5695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>99</v>
       </c>
@@ -5703,7 +5715,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>99</v>
       </c>
@@ -5723,7 +5735,7 @@
         <v>3.3652123889719707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>99</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>3.7227062322935724</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>99</v>
       </c>
@@ -5763,7 +5775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>999</v>
       </c>
@@ -5783,7 +5795,7 @@
         <v>2.5693234419266071</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>999</v>
       </c>
@@ -5803,7 +5815,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>999</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>3.9345358308985778</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>999</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>4.2920296742201796</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>999</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>4.5693234419266071</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>999</v>
       </c>
@@ -5883,7 +5895,7 @@
         <v>2.1386468838532142</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>999</v>
       </c>
@@ -5903,7 +5915,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>999</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>3.5038592728251845</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>999</v>
       </c>
@@ -5943,7 +5955,7 @@
         <v>3.8613531161467862</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>999</v>
       </c>
@@ -5963,7 +5975,7 @@
         <v>4.1386468838532142</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>999</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>1.8867172474406217</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>999</v>
       </c>
@@ -6003,7 +6015,7 @@
         <v>2.748070363587408</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>999</v>
       </c>
@@ -6023,7 +6035,7 @@
         <v>3.2519296364125925</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>999</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>3.6094234797341942</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>999</v>
       </c>
@@ -6063,7 +6075,7 @@
         <v>3.8867172474406222</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>999</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>1.7079703257798211</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>999</v>
       </c>
@@ -6103,7 +6115,7 @@
         <v>2.5693234419266071</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>999</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>3.0731827147517916</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>999</v>
       </c>
@@ -6143,7 +6155,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>999</v>
       </c>
@@ -6163,7 +6175,7 @@
         <v>3.7079703257798213</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>999</v>
       </c>
@@ -6183,7 +6195,7 @@
         <v>1.5693234419266071</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>999</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>2.4306765580733933</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>999</v>
       </c>
@@ -6223,7 +6235,7 @@
         <v>2.9345358308985778</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>999</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>3.2920296742201791</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>999</v>
       </c>
@@ -6263,7 +6275,7 @@
         <v>3.5693234419266076</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>4999</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>2.3173938055140151</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>4999</v>
       </c>
@@ -6303,7 +6315,7 @@
         <v>3.1787469216608013</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>4999</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>3.6826061944859854</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>4999</v>
       </c>
@@ -6343,7 +6355,7 @@
         <v>4.0401000378075871</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>4999</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>4.3173938055140155</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>4999</v>
       </c>
@@ -6383,7 +6395,7 @@
         <v>1.8867172474406217</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>4999</v>
       </c>
@@ -6403,7 +6415,7 @@
         <v>2.748070363587408</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>4999</v>
       </c>
@@ -6423,7 +6435,7 @@
         <v>3.2519296364125925</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>4999</v>
       </c>
@@ -6443,7 +6455,7 @@
         <v>3.6094234797341942</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>4999</v>
       </c>
@@ -6463,7 +6475,7 @@
         <v>3.8867172474406222</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>4999</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>1.6347876110280297</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>4999</v>
       </c>
@@ -6503,7 +6515,7 @@
         <v>2.4961407271748155</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>4999</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>4999</v>
       </c>
@@ -6543,7 +6555,7 @@
         <v>3.3574938433216017</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>4999</v>
       </c>
@@ -6563,7 +6575,7 @@
         <v>3.6347876110280297</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>4999</v>
       </c>
@@ -6583,7 +6595,7 @@
         <v>1.4560406893672286</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>4999</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>2.3173938055140151</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>4999</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>2.8212530783391991</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>4999</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>3.1787469216608013</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>4999</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>3.4560406893672289</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>4999</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>1.3173938055140146</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>4999</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>2.1787469216608009</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>4999</v>
       </c>
@@ -6723,7 +6735,7 @@
         <v>2.6826061944859854</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>4999</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>3.0401000378075871</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>4999</v>
       </c>
@@ -6763,7 +6775,7 @@
         <v>3.3173938055140151</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>19999</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>2.1386468838532142</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>19999</v>
       </c>
@@ -6803,7 +6815,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>19999</v>
       </c>
@@ -6823,7 +6835,7 @@
         <v>3.5038592728251845</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>19999</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>3.8613531161467862</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>19999</v>
       </c>
@@ -6863,7 +6875,7 @@
         <v>4.1386468838532142</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>19999</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>1.7079703257798211</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>19999</v>
       </c>
@@ -6903,7 +6915,7 @@
         <v>2.5693234419266071</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>19999</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>3.0731827147517916</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>19999</v>
       </c>
@@ -6943,7 +6955,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>19999</v>
       </c>
@@ -6963,7 +6975,7 @@
         <v>3.7079703257798213</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>19999</v>
       </c>
@@ -6983,7 +6995,7 @@
         <v>1.4560406893672286</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>19999</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>2.3173938055140151</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>19999</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>2.8212530783391991</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>19999</v>
       </c>
@@ -7043,7 +7055,7 @@
         <v>3.1787469216608013</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>19999</v>
       </c>
@@ -7063,7 +7075,7 @@
         <v>3.4560406893672289</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>19999</v>
       </c>
@@ -7083,7 +7095,7 @@
         <v>1.277293767706428</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>19999</v>
       </c>
@@ -7103,7 +7115,7 @@
         <v>2.1386468838532142</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>19999</v>
       </c>
@@ -7123,7 +7135,7 @@
         <v>2.6425061566783983</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>19999</v>
       </c>
@@ -7143,7 +7155,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>19999</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>3.277293767706428</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>19999</v>
       </c>
@@ -7183,7 +7195,7 @@
         <v>1.138646883853214</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>19999</v>
       </c>
@@ -7203,7 +7215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>19999</v>
       </c>
@@ -7223,7 +7235,7 @@
         <v>2.5038592728251845</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>19999</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>19999</v>
       </c>
@@ -7263,7 +7275,7 @@
         <v>3.1386468838532142</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>99999</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>99999</v>
       </c>
@@ -7303,7 +7315,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>99999</v>
       </c>
@@ -7323,7 +7335,7 @@
         <v>3.3652123889719707</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>99999</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>3.7227062322935724</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>99999</v>
       </c>
@@ -7363,7 +7375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>99999</v>
       </c>
@@ -7383,7 +7395,7 @@
         <v>1.5693234419266071</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>99999</v>
       </c>
@@ -7403,7 +7415,7 @@
         <v>2.4306765580733933</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>99999</v>
       </c>
@@ -7423,7 +7435,7 @@
         <v>2.9345358308985778</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>99999</v>
       </c>
@@ -7443,7 +7455,7 @@
         <v>3.2920296742201791</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>99999</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>3.5693234419266076</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>99999</v>
       </c>
@@ -7483,7 +7495,7 @@
         <v>1.3173938055140146</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>99999</v>
       </c>
@@ -7503,7 +7515,7 @@
         <v>2.1787469216608009</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>99999</v>
       </c>
@@ -7523,7 +7535,7 @@
         <v>2.6826061944859854</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>99999</v>
       </c>
@@ -7543,7 +7555,7 @@
         <v>3.0401000378075871</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>99999</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>3.3173938055140151</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>99999</v>
       </c>
@@ -7583,7 +7595,7 @@
         <v>1.138646883853214</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>99999</v>
       </c>
@@ -7603,7 +7615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>99999</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>2.5038592728251845</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>99999</v>
       </c>
@@ -7643,7 +7655,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>99999</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>3.1386468838532142</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>99999</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>99999</v>
       </c>
@@ -7703,7 +7715,7 @@
         <v>1.8613531161467862</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>99999</v>
       </c>
@@ -7723,7 +7735,7 @@
         <v>2.3652123889719707</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>99999</v>
       </c>
@@ -7743,7 +7755,7 @@
         <v>2.722706232293572</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>99999</v>
       </c>
@@ -7779,528 +7791,804 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="190" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="190" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="6.28515625" style="190" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="190"/>
+    <col min="1" max="1" width="16" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="6.33203125" style="179" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="179"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="191" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="191" t="s">
-        <v>300</v>
-      </c>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
       <c r="T1" s="191"/>
       <c r="U1" s="191"/>
       <c r="V1" s="191"/>
       <c r="W1" s="191"/>
       <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-    </row>
-    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="C2" s="193" t="s">
+      <c r="Y1" s="195" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+    </row>
+    <row r="2" spans="1:32" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="196" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="192" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="192" t="s">
+        <v>289</v>
+      </c>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="192" t="s">
+        <v>308</v>
+      </c>
+      <c r="S2" s="192" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="192" t="s">
+        <v>295</v>
+      </c>
+      <c r="W2" s="192" t="s">
+        <v>307</v>
+      </c>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+    </row>
+    <row r="3" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="192" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D3" s="192" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="193" t="s">
+      <c r="E3" s="192" t="s">
         <v>287</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F3" s="192" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G3" s="192" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="193" t="s">
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="193" t="s">
+      <c r="O3" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="193" t="s">
+      <c r="P3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="193" t="s">
+      <c r="Q3" s="192" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="R3" s="192"/>
+      <c r="S3" s="192" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="193" t="s">
+      <c r="T3" s="192" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="193" t="s">
+      <c r="U3" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="193" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="193" t="s">
+      <c r="V3" s="192" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="193" t="s">
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="194" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z3" s="194" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA3" s="194" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB3" s="194" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC3" s="194" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD3" s="194" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE3" s="194" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF3" s="194"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="194" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="193" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="193" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="193" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
+      <c r="AD4" s="194"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="194" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="194" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="194"/>
+      <c r="B6" s="194" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="194"/>
+      <c r="B7" s="194" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="194"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="194"/>
+      <c r="B8" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="194"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="194"/>
+      <c r="B9" s="194" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="193" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="190" t="s">
-        <v>305</v>
-      </c>
-      <c r="T2" s="190" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" s="190" t="s">
-        <v>302</v>
-      </c>
-      <c r="V2" s="190" t="s">
-        <v>303</v>
-      </c>
-      <c r="W2" s="190" t="s">
-        <v>304</v>
-      </c>
-      <c r="X2" s="190" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y2" s="190" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194" t="s">
+      <c r="C9" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="194"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="190" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="194" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194" t="s">
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="194"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="194" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="194" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="194" t="s">
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194" t="s">
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="194" t="s">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194" t="s">
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="194" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="194" t="s">
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194" t="s">
+      <c r="Q12" s="193"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="194"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="194"/>
+      <c r="B13" s="194" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="194"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="194"/>
-      <c r="R7" s="194"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="190" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="194" t="s">
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194" t="s">
+      <c r="Q13" s="193"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="194"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="194"/>
+      <c r="B14" s="194" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="194"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="190" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="194" t="s">
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194" t="s">
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="194"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="194"/>
+      <c r="B15" s="194" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="190" t="s">
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="193"/>
+      <c r="W15" s="193"/>
+      <c r="X15" s="193"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="194"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="194" t="s">
+      <c r="C16" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194" t="s">
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="190" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="190" t="s">
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="194"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="194"/>
+      <c r="B17" s="194" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="194"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="194" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="194" t="s">
+      <c r="C18" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194" t="s">
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="190" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="194"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="190" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="190" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="194"/>
-      <c r="O14" s="194"/>
-      <c r="P14" s="194"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="194"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="194"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="194"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="190" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="194"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="194"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="190" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="190" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="C1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8318,32 +8606,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.88671875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -8364,59 +8652,59 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="180" t="s">
+      <c r="E2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="180" t="s">
+      <c r="F2" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="182" t="s">
+      <c r="H2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="180" t="s">
+      <c r="I2" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="184" t="s">
+      <c r="J2" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="176" t="s">
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="180" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="181"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="185"/>
       <c r="J3" s="40" t="s">
         <v>22</v>
       </c>
@@ -8447,7 +8735,7 @@
       <c r="S3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="177"/>
+      <c r="T3" s="181"/>
       <c r="U3" s="10"/>
       <c r="V3" s="11"/>
       <c r="W3" s="12"/>
@@ -8455,7 +8743,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="42">
         <v>1</v>
@@ -8520,7 +8808,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="50">
         <v>2</v>
@@ -8585,7 +8873,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="50">
         <v>3</v>
@@ -8650,7 +8938,7 @@
       <c r="U6" s="15"/>
       <c r="V6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="50">
         <v>4</v>
@@ -8715,7 +9003,7 @@
       <c r="U7" s="15"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="50">
         <v>5</v>
@@ -8780,7 +9068,7 @@
       <c r="U8" s="15"/>
       <c r="V8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="50">
         <v>6</v>
@@ -8845,7 +9133,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="52">
         <v>7</v>
@@ -8910,7 +9198,7 @@
       <c r="U10" s="15"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="42">
         <v>8</v>
@@ -8975,7 +9263,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="50">
         <v>9</v>
@@ -9040,7 +9328,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="16"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="50">
         <v>10</v>
@@ -9105,7 +9393,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="52">
         <v>11</v>
@@ -9170,7 +9458,7 @@
       <c r="U14" s="15"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="65">
         <v>12</v>
@@ -9216,7 +9504,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="72">
         <v>13</v>
@@ -9262,7 +9550,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="72">
         <v>14</v>
@@ -9308,7 +9596,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="72">
         <v>15</v>
@@ -9354,7 +9642,7 @@
       <c r="U18" s="15"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="72">
         <v>16</v>
@@ -9400,7 +9688,7 @@
       <c r="U19" s="15"/>
       <c r="V19" s="16"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="99">
         <v>17</v>
@@ -9446,7 +9734,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="115">
         <v>18</v>
@@ -9492,7 +9780,7 @@
       <c r="U21" s="15"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="123">
         <v>19</v>
@@ -9538,7 +9826,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="123">
         <v>20</v>
@@ -9584,7 +9872,7 @@
       <c r="U23" s="15"/>
       <c r="V23" s="16"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="125">
         <v>21</v>
@@ -9630,7 +9918,7 @@
       <c r="U24" s="15"/>
       <c r="V24" s="16"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="107">
         <v>22</v>
@@ -9676,7 +9964,7 @@
       <c r="U25" s="15"/>
       <c r="V25" s="16"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="84">
         <v>23</v>
@@ -9722,7 +10010,7 @@
       <c r="U26" s="15"/>
       <c r="V26" s="16"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="86">
         <v>24</v>
@@ -9768,7 +10056,7 @@
       <c r="U27" s="15"/>
       <c r="V27" s="16"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="79">
         <v>25</v>
@@ -9814,7 +10102,7 @@
       <c r="U28" s="15"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="84">
         <v>26</v>
@@ -9860,7 +10148,7 @@
       <c r="U29" s="15"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="86">
         <v>27</v>
@@ -9906,7 +10194,7 @@
       <c r="U30" s="15"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9983,14 +10271,14 @@
       <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:458" ht="57" x14ac:dyDescent="0.3">
       <c r="C1" s="141">
         <v>45052</v>
       </c>
@@ -10475,7 +10763,7 @@
       <c r="QO1" s="136"/>
       <c r="QP1" s="136"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -10511,7 +10799,7 @@
       <c r="AC2" s="140"/>
       <c r="AD2" s="140"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -10544,7 +10832,7 @@
       <c r="AC3" s="140"/>
       <c r="AD3" s="140"/>
     </row>
-    <row r="4" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>64</v>
       </c>
@@ -10577,7 +10865,7 @@
       <c r="AC4" s="140"/>
       <c r="AD4" s="140"/>
     </row>
-    <row r="5" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -10610,7 +10898,7 @@
       <c r="AC5" s="140"/>
       <c r="AD5" s="140"/>
     </row>
-    <row r="6" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -10643,7 +10931,7 @@
       <c r="AC6" s="140"/>
       <c r="AD6" s="140"/>
     </row>
-    <row r="7" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -10676,7 +10964,7 @@
       <c r="AC7" s="140"/>
       <c r="AD7" s="140"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>70</v>
       </c>
@@ -10709,7 +10997,7 @@
       <c r="AC8" s="140"/>
       <c r="AD8" s="140"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>71</v>
       </c>
@@ -10742,7 +11030,7 @@
       <c r="AC9" s="140"/>
       <c r="AD9" s="140"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -10775,7 +11063,7 @@
       <c r="AC10" s="140"/>
       <c r="AD10" s="140"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>73</v>
       </c>
@@ -10808,7 +11096,7 @@
       <c r="AC11" s="140"/>
       <c r="AD11" s="140"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -10841,7 +11129,7 @@
       <c r="AC12" s="140"/>
       <c r="AD12" s="140"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -10874,7 +11162,7 @@
       <c r="AC13" s="140"/>
       <c r="AD13" s="140"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -10907,7 +11195,7 @@
       <c r="AC14" s="140"/>
       <c r="AD14" s="140"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -10940,7 +11228,7 @@
       <c r="AC15" s="140"/>
       <c r="AD15" s="140"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>78</v>
       </c>
@@ -10973,7 +11261,7 @@
       <c r="AC16" s="140"/>
       <c r="AD16" s="140"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -11006,7 +11294,7 @@
       <c r="AC17" s="140"/>
       <c r="AD17" s="140"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -11042,7 +11330,7 @@
       <c r="AC18" s="140"/>
       <c r="AD18" s="140"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>81</v>
       </c>
@@ -11075,7 +11363,7 @@
       <c r="AC19" s="140"/>
       <c r="AD19" s="140"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -11108,7 +11396,7 @@
       <c r="AC20" s="140"/>
       <c r="AD20" s="140"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>63</v>
       </c>
@@ -11141,7 +11429,7 @@
       <c r="AC21" s="140"/>
       <c r="AD21" s="140"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -11174,7 +11462,7 @@
       <c r="AC22" s="140"/>
       <c r="AD22" s="140"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -11207,7 +11495,7 @@
       <c r="AC23" s="140"/>
       <c r="AD23" s="140"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -11240,7 +11528,7 @@
       <c r="AC24" s="140"/>
       <c r="AD24" s="140"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -11273,7 +11561,7 @@
       <c r="AC25" s="140"/>
       <c r="AD25" s="140"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -11306,7 +11594,7 @@
       <c r="AC26" s="140"/>
       <c r="AD26" s="140"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -11339,7 +11627,7 @@
       <c r="AC27" s="140"/>
       <c r="AD27" s="140"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -11372,7 +11660,7 @@
       <c r="AC28" s="140"/>
       <c r="AD28" s="140"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -11405,7 +11693,7 @@
       <c r="AC29" s="140"/>
       <c r="AD29" s="140"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -11438,7 +11726,7 @@
       <c r="AC30" s="140"/>
       <c r="AD30" s="140"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -11471,7 +11759,7 @@
       <c r="AC31" s="140"/>
       <c r="AD31" s="140"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -11504,7 +11792,7 @@
       <c r="AC32" s="140"/>
       <c r="AD32" s="140"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>91</v>
       </c>
@@ -11550,7 +11838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11564,24 +11852,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="145" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="145" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="145" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="145"/>
+    <col min="2" max="2" width="3.88671875" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="145" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="145" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="146"/>
       <c r="B2" s="151" t="s">
         <v>29</v>
@@ -11592,7 +11880,7 @@
       <c r="D2" s="150"/>
       <c r="G2" s="147"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="146"/>
       <c r="B3" s="153">
         <v>1</v>
@@ -11603,7 +11891,7 @@
       <c r="D3" s="150"/>
       <c r="G3" s="147"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="153">
         <v>2</v>
@@ -11614,7 +11902,7 @@
       <c r="D4" s="150"/>
       <c r="G4" s="147"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="153">
         <v>3</v>
@@ -11625,7 +11913,7 @@
       <c r="D5" s="150"/>
       <c r="G5" s="147"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="153">
         <v>4</v>
@@ -11636,7 +11924,7 @@
       <c r="D6" s="150"/>
       <c r="G6" s="147"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="153">
         <v>5</v>
@@ -11647,7 +11935,7 @@
       <c r="D7" s="150"/>
       <c r="G7" s="147"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="153">
         <v>6</v>
@@ -11658,7 +11946,7 @@
       <c r="D8" s="150"/>
       <c r="G8" s="147"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="146"/>
       <c r="B9" s="155">
         <v>7</v>
@@ -11669,7 +11957,7 @@
       <c r="D9" s="150"/>
       <c r="G9" s="147"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="146"/>
       <c r="B10" s="155">
         <v>8</v>
@@ -11680,7 +11968,7 @@
       <c r="D10" s="150"/>
       <c r="G10" s="147"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="146"/>
       <c r="B11" s="155">
         <v>9</v>
@@ -11691,7 +11979,7 @@
       <c r="D11" s="150"/>
       <c r="G11" s="147"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="146"/>
       <c r="B12" s="155">
         <v>10</v>
@@ -11702,7 +11990,7 @@
       <c r="D12" s="150"/>
       <c r="G12" s="147"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
       <c r="B13" s="155">
         <v>11</v>
@@ -11713,7 +12001,7 @@
       <c r="D13" s="150"/>
       <c r="G13" s="147"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="146"/>
       <c r="B14" s="155">
         <v>12</v>
@@ -11724,7 +12012,7 @@
       <c r="D14" s="150"/>
       <c r="G14" s="147"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="146"/>
       <c r="B15" s="157">
         <v>13</v>
@@ -11735,7 +12023,7 @@
       <c r="D15" s="150"/>
       <c r="G15" s="147"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="146"/>
       <c r="B16" s="157">
         <v>14</v>
@@ -11746,7 +12034,7 @@
       <c r="D16" s="150"/>
       <c r="G16" s="147"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="146"/>
       <c r="B17" s="157">
         <v>15</v>
@@ -11757,7 +12045,7 @@
       <c r="D17" s="150"/>
       <c r="G17" s="147"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="146"/>
       <c r="B18" s="157">
         <v>16</v>
@@ -11768,7 +12056,7 @@
       <c r="D18" s="150"/>
       <c r="G18" s="147"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="146"/>
       <c r="B19" s="157">
         <v>17</v>
@@ -11779,7 +12067,7 @@
       <c r="D19" s="150"/>
       <c r="G19" s="147"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="146"/>
       <c r="B20" s="157">
         <v>18</v>
@@ -11790,7 +12078,7 @@
       <c r="D20" s="150"/>
       <c r="G20" s="147"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="146"/>
       <c r="B21" s="159">
         <v>19</v>
@@ -11801,13 +12089,13 @@
       <c r="D21" s="150"/>
       <c r="G21" s="147"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="149"/>
       <c r="C22" s="149"/>
       <c r="D22" s="146"/>
       <c r="G22" s="147"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="151" t="s">
         <v>29</v>
       </c>
@@ -11817,7 +12105,7 @@
       <c r="D23" s="146"/>
       <c r="G23" s="147"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="161">
         <v>1</v>
       </c>
@@ -11827,7 +12115,7 @@
       <c r="D24" s="146"/>
       <c r="G24" s="147"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="161">
         <v>2</v>
       </c>
@@ -11837,7 +12125,7 @@
       <c r="D25" s="146"/>
       <c r="G25" s="147"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="161">
         <v>3</v>
       </c>
@@ -11847,7 +12135,7 @@
       <c r="D26" s="146"/>
       <c r="G26" s="147"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="161">
         <v>4</v>
       </c>
@@ -11857,7 +12145,7 @@
       <c r="D27" s="146"/>
       <c r="G27" s="147"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
         <v>5</v>
       </c>
@@ -11867,7 +12155,7 @@
       <c r="D28" s="146"/>
       <c r="G28" s="147"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="161">
         <v>6</v>
       </c>
@@ -11877,7 +12165,7 @@
       <c r="D29" s="146"/>
       <c r="G29" s="147"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="161">
         <v>7</v>
       </c>
@@ -11887,7 +12175,7 @@
       <c r="D30" s="146"/>
       <c r="G30" s="147"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="161">
         <v>8</v>
       </c>
@@ -11897,7 +12185,7 @@
       <c r="D31" s="146"/>
       <c r="G31" s="147"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="162">
         <v>9</v>
       </c>
@@ -11907,7 +12195,7 @@
       <c r="D32" s="146"/>
       <c r="G32" s="147"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="162">
         <v>10</v>
       </c>
@@ -11917,7 +12205,7 @@
       <c r="D33" s="146"/>
       <c r="G33" s="147"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="162">
         <v>11</v>
       </c>
@@ -11927,7 +12215,7 @@
       <c r="D34" s="146"/>
       <c r="G34" s="147"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="162">
         <v>12</v>
       </c>
@@ -11937,7 +12225,7 @@
       <c r="D35" s="146"/>
       <c r="G35" s="147"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="162">
         <v>13</v>
       </c>
@@ -11947,7 +12235,7 @@
       <c r="D36" s="146"/>
       <c r="G36" s="147"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="162">
         <v>14</v>
       </c>
@@ -11957,7 +12245,7 @@
       <c r="D37" s="146"/>
       <c r="G37" s="147"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="162">
         <v>15</v>
       </c>
@@ -11967,7 +12255,7 @@
       <c r="D38" s="146"/>
       <c r="G38" s="147"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="162">
         <v>16</v>
       </c>
@@ -11977,7 +12265,7 @@
       <c r="D39" s="146"/>
       <c r="G39" s="147"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="162">
         <v>17</v>
       </c>
@@ -11987,7 +12275,7 @@
       <c r="D40" s="146"/>
       <c r="G40" s="147"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="162">
         <v>18</v>
       </c>
@@ -11997,7 +12285,7 @@
       <c r="D41" s="146"/>
       <c r="G41" s="147"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="162">
         <v>19</v>
       </c>
@@ -12007,7 +12295,7 @@
       <c r="D42" s="146"/>
       <c r="G42" s="147"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="162">
         <v>20</v>
       </c>
@@ -12017,7 +12305,7 @@
       <c r="D43" s="146"/>
       <c r="G43" s="147"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="162">
         <v>21</v>
       </c>
@@ -12027,7 +12315,7 @@
       <c r="D44" s="146"/>
       <c r="G44" s="147"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="162">
         <v>22</v>
       </c>
@@ -12037,7 +12325,7 @@
       <c r="D45" s="146"/>
       <c r="G45" s="147"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="162">
         <v>23</v>
       </c>
@@ -12047,7 +12335,7 @@
       <c r="D46" s="146"/>
       <c r="G46" s="147"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="162">
         <v>24</v>
       </c>
@@ -12057,7 +12345,7 @@
       <c r="D47" s="146"/>
       <c r="G47" s="147"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="162">
         <v>25</v>
       </c>
@@ -12067,7 +12355,7 @@
       <c r="D48" s="146"/>
       <c r="G48" s="147"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="164">
         <v>26</v>
       </c>
@@ -12077,7 +12365,7 @@
       <c r="D49" s="146"/>
       <c r="G49" s="147"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="164">
         <v>27</v>
       </c>
@@ -12087,7 +12375,7 @@
       <c r="D50" s="146"/>
       <c r="G50" s="147"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="164">
         <v>28</v>
       </c>
@@ -12097,7 +12385,7 @@
       <c r="D51" s="146"/>
       <c r="G51" s="147"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="164">
         <v>29</v>
       </c>
@@ -12107,7 +12395,7 @@
       <c r="D52" s="146"/>
       <c r="G52" s="147"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="164">
         <v>30</v>
       </c>
@@ -12117,7 +12405,7 @@
       <c r="D53" s="146"/>
       <c r="G53" s="147"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="164">
         <v>31</v>
       </c>
@@ -12127,7 +12415,7 @@
       <c r="D54" s="146"/>
       <c r="G54" s="147"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="164">
         <v>32</v>
       </c>
@@ -12137,7 +12425,7 @@
       <c r="D55" s="146"/>
       <c r="G55" s="147"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="164">
         <v>33</v>
       </c>
@@ -12147,7 +12435,7 @@
       <c r="D56" s="146"/>
       <c r="G56" s="147"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="164">
         <v>34</v>
       </c>
@@ -12157,7 +12445,7 @@
       <c r="D57" s="146"/>
       <c r="G57" s="147"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="164">
         <v>35</v>
       </c>
@@ -12167,7 +12455,7 @@
       <c r="D58" s="146"/>
       <c r="G58" s="147"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="164">
         <v>36</v>
       </c>
@@ -12177,7 +12465,7 @@
       <c r="D59" s="146"/>
       <c r="G59" s="147"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="164">
         <v>37</v>
       </c>
@@ -12187,7 +12475,7 @@
       <c r="D60" s="146"/>
       <c r="G60" s="147"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="164">
         <v>38</v>
       </c>
@@ -12197,7 +12485,7 @@
       <c r="D61" s="146"/>
       <c r="G61" s="147"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="164">
         <v>39</v>
       </c>
@@ -12207,7 +12495,7 @@
       <c r="D62" s="146"/>
       <c r="G62" s="147"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="164">
         <v>40</v>
       </c>
@@ -12217,7 +12505,7 @@
       <c r="D63" s="146"/>
       <c r="G63" s="147"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="162">
         <v>41</v>
       </c>
@@ -12227,7 +12515,7 @@
       <c r="D64" s="146"/>
       <c r="G64" s="147"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="162">
         <v>42</v>
       </c>
@@ -12237,7 +12525,7 @@
       <c r="D65" s="146"/>
       <c r="G65" s="147"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="162">
         <v>43</v>
       </c>
@@ -12247,7 +12535,7 @@
       <c r="D66" s="146"/>
       <c r="G66" s="147"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="162">
         <v>44</v>
       </c>
@@ -12257,7 +12545,7 @@
       <c r="D67" s="146"/>
       <c r="G67" s="147"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="162">
         <v>45</v>
       </c>
@@ -12267,7 +12555,7 @@
       <c r="D68" s="146"/>
       <c r="G68" s="147"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="162">
         <v>46</v>
       </c>
@@ -12277,7 +12565,7 @@
       <c r="D69" s="146"/>
       <c r="G69" s="147"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="162">
         <v>47</v>
       </c>
@@ -12287,7 +12575,7 @@
       <c r="D70" s="146"/>
       <c r="G70" s="147"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="162">
         <v>48</v>
       </c>
@@ -12297,7 +12585,7 @@
       <c r="D71" s="146"/>
       <c r="G71" s="147"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="166">
         <v>49</v>
       </c>
@@ -12305,7 +12593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="166">
         <v>50</v>
       </c>
@@ -12313,7 +12601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="166">
         <v>51</v>
       </c>
@@ -12323,7 +12611,7 @@
       <c r="D74" s="146"/>
       <c r="G74" s="147"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="162">
         <v>52</v>
       </c>
@@ -12333,7 +12621,7 @@
       <c r="D75" s="146"/>
       <c r="G75" s="147"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="162">
         <v>53</v>
       </c>
@@ -12343,7 +12631,7 @@
       <c r="D76" s="146"/>
       <c r="G76" s="147"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="168">
         <v>54</v>
       </c>
@@ -12353,7 +12641,7 @@
       <c r="D77" s="146"/>
       <c r="G77" s="147"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="168">
         <v>55</v>
       </c>
@@ -12363,7 +12651,7 @@
       <c r="E78" s="149"/>
       <c r="F78" s="149"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="168">
         <v>56</v>
       </c>
@@ -12371,7 +12659,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="168">
         <v>57</v>
       </c>
@@ -12379,7 +12667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="168">
         <v>58</v>
       </c>
@@ -12387,7 +12675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="168">
         <v>59</v>
       </c>
@@ -12395,7 +12683,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="168">
         <v>60</v>
       </c>
@@ -12403,7 +12691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="168">
         <v>61</v>
       </c>
@@ -12411,7 +12699,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="168">
         <v>62</v>
       </c>
@@ -12419,7 +12707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="168">
         <v>63</v>
       </c>
@@ -12427,7 +12715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="168">
         <v>64</v>
       </c>
@@ -12435,7 +12723,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="168">
         <v>65</v>
       </c>
@@ -12443,7 +12731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="168">
         <v>66</v>
       </c>
@@ -12451,7 +12739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="168">
         <v>67</v>
       </c>
@@ -12459,7 +12747,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="168">
         <v>68</v>
       </c>
@@ -12467,7 +12755,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="168">
         <v>69</v>
       </c>
@@ -12475,7 +12763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="168">
         <v>70</v>
       </c>
@@ -12483,7 +12771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="168">
         <v>71</v>
       </c>
@@ -12491,7 +12779,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="168">
         <v>72</v>
       </c>
@@ -12499,7 +12787,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="168">
         <v>73</v>
       </c>
@@ -12507,7 +12795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="168">
         <v>74</v>
       </c>
@@ -12515,7 +12803,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="168">
         <v>75</v>
       </c>
@@ -12523,7 +12811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="170">
         <v>76</v>
       </c>
@@ -12531,7 +12819,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="172">
         <v>77</v>
       </c>
@@ -12539,7 +12827,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12552,7 +12840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12564,7 +12852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12576,7 +12864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
